--- a/other_themes.xlsx
+++ b/other_themes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Which paper</t>
   </si>
@@ -22,7 +22,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Context</t>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>2018_2b</t>
+  </si>
+  <si>
+    <t>2018_2c</t>
   </si>
   <si>
     <t>2019_3294016.3294025</t>
@@ -79,6 +85,12 @@
     <t>2025_3702212.3702224</t>
   </si>
   <si>
+    <t>2b. No money worries: new student identities for Graduate Level Apprentices</t>
+  </si>
+  <si>
+    <t>2c. The enemies within - inhibitors to learning</t>
+  </si>
+  <si>
     <t>A Flexible Approach to Introductory Programming</t>
   </si>
   <si>
@@ -133,43 +145,64 @@
     <t>Where Have All the Papers Gone? Priming the pump of  pedagogical publishing in Europe</t>
   </si>
   <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>broad-based</t>
-  </si>
-  <si>
-    <t>professional body (BCS)</t>
-  </si>
-  <si>
-    <t>software engineering</t>
-  </si>
-  <si>
-    <t>curriculum</t>
-  </si>
-  <si>
-    <t>I dunno. It could be "programming", but I think that would be misleading</t>
-  </si>
-  <si>
-    <t>professional development</t>
-  </si>
-  <si>
-    <t>groupwork</t>
-  </si>
-  <si>
-    <t>Forensics</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>school/outreach</t>
-  </si>
-  <si>
-    <t>international students</t>
-  </si>
-  <si>
-    <t>staff development</t>
+    <t>graduate apprenticeships</t>
+  </si>
+  <si>
+    <t>policy setting</t>
+  </si>
+  <si>
+    <t>Teaching tech for engagement</t>
+  </si>
+  <si>
+    <t>a government-led initative</t>
+  </si>
+  <si>
+    <t>accreditation</t>
+  </si>
+  <si>
+    <t>professional tools</t>
+  </si>
+  <si>
+    <t>misconceptions</t>
+  </si>
+  <si>
+    <t>widening participation (at a pinch could be "recruitment/progression")</t>
+  </si>
+  <si>
+    <t>Could be "ability". Could be "pathways". Neither fit well</t>
+  </si>
+  <si>
+    <t>Could be "assessment technique" but it's a bit more subtle than that. Could be "educational technology", but that's misleading. Is engagement part of "attitudes"?</t>
+  </si>
+  <si>
+    <t>professional  development</t>
+  </si>
+  <si>
+    <t>generative AI</t>
+  </si>
+  <si>
+    <t>could be "assessment techniques". But there's nothing for peer learning/evaluation/feedback</t>
+  </si>
+  <si>
+    <t>_another one_ that's concerned with peer learning/feedback. Which is more than "teaching/learning techniques" I think.</t>
+  </si>
+  <si>
+    <t>Could be "assessment techniques". More usefully Generative AI</t>
+  </si>
+  <si>
+    <t>working with charity. Disadvantage</t>
+  </si>
+  <si>
+    <t>I could tick teaching/learning, but that would be misleading. It needs to be teacher development</t>
+  </si>
+  <si>
+    <t>teaching/enhancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generative AI? Analytic skills? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">publication? recognition of teaching? </t>
   </si>
 </sst>
 </file>
@@ -527,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,142 +579,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -692,164 +725,192 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
